--- a/medicine/Enfance/Haim_Ginott/Haim_Ginott.xlsx
+++ b/medicine/Enfance/Haim_Ginott/Haim_Ginott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haim G. Ginott (1922 - 1973) est un enseignant, un psychologue des enfants et un médecin psychothérapeute travaillant avec les enfants et leurs parents.
 Rescapé des camps de la mort, Haim Ginott commence sa vie professionnelle en 1947 en Israël, comme maître d'école, avant d'émigrer aux États-Unis. Il obtient un doctorat de psychologie clinique à l'Université Columbia à New York en 1952. Par la suite, son travail à la Clinique de Jacksonville (Jacksonville Guidance Clinic), en Floride, lui permet d'élaborer une attitude éducative articulant étroitement compassion et fixation des limites.
@@ -513,7 +525,9 @@
           <t>Approches par la communication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La liste des points suivants résume l'approche de Haim Ginott en communication :
 ne jamais nier ni ignorer le sentiment de l'enfant ;
